--- a/bday_msg/bethany_bday.xlsx
+++ b/bday_msg/bethany_bday.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suesong/R/hbd_bethany/bday_msg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDB1025-38EB-D242-9625-87A4E7B5FA47}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF841C57-8FF3-B145-851C-B4E12F61F242}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{70BD31DF-D592-F644-9588-E5BEF65F8862}"/>
+    <workbookView xWindow="-38400" yWindow="-8040" windowWidth="38400" windowHeight="21100" xr2:uid="{70BD31DF-D592-F644-9588-E5BEF65F8862}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Appa says happy happy birthday to the mostest innovator and can't wait to runaway with you! Some day we will have drinks again! </t>
   </si>
@@ -73,10 +73,6 @@
     <t>louisa</t>
   </si>
   <si>
-    <t xml:space="preserve">Happy birthday Bethany!!! I hope you have the most wonderful and deserved day. You are such a kind and most helpful soul and I really really look forward to when we can meet in person again. Happy Birthday and hope you get to enjoy some lovely spring weather~ :heart: Love,
-</t>
-  </si>
-  <si>
     <t>Happy Birthday, Bethany! I hope things have started to slow down for you with the end of the school year, and that you are able to take a well-deserved break! Have an amazing birthday, and here's to hoping we can see each other in person soon! :)</t>
   </si>
   <si>
@@ -101,6 +97,16 @@
     <t>HAPPY BIRTHDAY, BETHANY!
 You are one year awesomer and wiser! Not that you need it - you are such a brilliant, warm, and fun person &lt;3. Like how do you even do it? I hope you have a super-fantastic day today and a year filled with joy, fulfilment, success, and significantly less pandemic nonsense than last year. I’ve got my fingers crossed that we’ll be able to hang out soonish :).
 &lt;3</t>
+  </si>
+  <si>
+    <t>liz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Happy birthday Bethany!!! I hope you have the most wonderful and deserved day. You are such a kind and most helpful soul and I really really look forward to when we can meet in person again. Happy Birthday and hope you get to enjoy some lovely spring weather~ :heart: Love, Louisa
+</t>
+  </si>
+  <si>
+    <t>:star-struck::heart_eyes::nerd_face::partying_face: Oh my goodness, Bethany, it’s your BIRTHDAY!!! :hugging_face: Your existence is a wonderful thing and thus a highly delightful thing to celebrate! You are such a thoughtful, creative, accepting, calming, caring, and authentic person. :sparkling_heart: You make life better for everyone around you! :heart_eyes: You definitely make the Moon happier. :full_moon_with_face: :thumb_up: I hope you have a SUPER FUN, super chill day. :desert_island::tropical_drink::heart:</t>
   </si>
 </sst>
 </file>
@@ -452,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52ED2745-0C6F-B64D-8387-86A347CB368E}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" zoomScale="210" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -505,39 +511,47 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
         <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/bday_msg/bethany_bday.xlsx
+++ b/bday_msg/bethany_bday.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suesong/R/hbd_bethany/bday_msg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF841C57-8FF3-B145-851C-B4E12F61F242}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782130DD-7FFD-234A-AA2F-34A97C9E4012}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-8040" windowWidth="38400" windowHeight="21100" xr2:uid="{70BD31DF-D592-F644-9588-E5BEF65F8862}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Appa says happy happy birthday to the mostest innovator and can't wait to runaway with you! Some day we will have drinks again! </t>
   </si>
@@ -107,6 +107,18 @@
   </si>
   <si>
     <t>:star-struck::heart_eyes::nerd_face::partying_face: Oh my goodness, Bethany, it’s your BIRTHDAY!!! :hugging_face: Your existence is a wonderful thing and thus a highly delightful thing to celebrate! You are such a thoughtful, creative, accepting, calming, caring, and authentic person. :sparkling_heart: You make life better for everyone around you! :heart_eyes: You definitely make the Moon happier. :full_moon_with_face: :thumb_up: I hope you have a SUPER FUN, super chill day. :desert_island::tropical_drink::heart:</t>
+  </si>
+  <si>
+    <t>will</t>
+  </si>
+  <si>
+    <t>Bethany, please come to Niagara and help me start the Zumba revolution. Also, happy birthday!!! YAY!!!</t>
+  </si>
+  <si>
+    <t>adira</t>
+  </si>
+  <si>
+    <t>HAPPY BIRTHDAY BETHANY!!! You are an angel of a human being. Your love and support is unparalleled and you are such a wonderful person! Thank you so much for being such a kind and thoughtful soul! Miss you so much! Hope you have a wonderful day on your birthday!!! :heart:</t>
   </si>
 </sst>
 </file>
@@ -458,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52ED2745-0C6F-B64D-8387-86A347CB368E}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="210" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -554,6 +566,22 @@
         <v>21</v>
       </c>
     </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/bday_msg/bethany_bday.xlsx
+++ b/bday_msg/bethany_bday.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suesong/R/hbd_bethany/bday_msg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782130DD-7FFD-234A-AA2F-34A97C9E4012}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA15DDE-E5DA-764D-829F-AB3B88667B56}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-8040" windowWidth="38400" windowHeight="21100" xr2:uid="{70BD31DF-D592-F644-9588-E5BEF65F8862}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Appa says happy happy birthday to the mostest innovator and can't wait to runaway with you! Some day we will have drinks again! </t>
   </si>
@@ -119,6 +119,18 @@
   </si>
   <si>
     <t>HAPPY BIRTHDAY BETHANY!!! You are an angel of a human being. Your love and support is unparalleled and you are such a wonderful person! Thank you so much for being such a kind and thoughtful soul! Miss you so much! Hope you have a wonderful day on your birthday!!! :heart:</t>
+  </si>
+  <si>
+    <t>shayne</t>
+  </si>
+  <si>
+    <t>Happy birthday Bethany! Miss you and hope to see you soon!</t>
+  </si>
+  <si>
+    <t>becca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Happy birthday, Bethany!! I hope the next year brings you many wonderful plants, round foods, and all the other good things in life! Very much looking forward to actually meeting in person again, hopefully before too long. Enjoy your day! </t>
   </si>
 </sst>
 </file>
@@ -470,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52ED2745-0C6F-B64D-8387-86A347CB368E}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="210" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -582,6 +594,22 @@
         <v>25</v>
       </c>
     </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/bday_msg/bethany_bday.xlsx
+++ b/bday_msg/bethany_bday.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suesong/R/hbd_bethany/bday_msg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA15DDE-E5DA-764D-829F-AB3B88667B56}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3601D5C-170F-1C49-AEEA-AC6AEDBE96C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-8040" windowWidth="38400" windowHeight="21100" xr2:uid="{70BD31DF-D592-F644-9588-E5BEF65F8862}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{70BD31DF-D592-F644-9588-E5BEF65F8862}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Appa says happy happy birthday to the mostest innovator and can't wait to runaway with you! Some day we will have drinks again! </t>
   </si>
@@ -131,6 +131,12 @@
   </si>
   <si>
     <t xml:space="preserve">Happy birthday, Bethany!! I hope the next year brings you many wonderful plants, round foods, and all the other good things in life! Very much looking forward to actually meeting in person again, hopefully before too long. Enjoy your day! </t>
+  </si>
+  <si>
+    <t>francine</t>
+  </si>
+  <si>
+    <t>Dear Bethany, Happy Birthday! :tada::bouquet::champagne: I know another lockdown birthday probably sucks but I am wishing you the absolute best birthday possible in these circumstances. Also just want to take this opportunity to tell you that you are such an inspiration! I also really consider your day of birth a win for me because you  have been an immensely kind, supportive, and caring friend and lab-mate to me!! :heart: I am soooooo looking forward to seeing you again in person! Take care and enjoy your day, Bethany!! :tada::hugging_face:</t>
   </si>
 </sst>
 </file>
@@ -482,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52ED2745-0C6F-B64D-8387-86A347CB368E}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="210" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="210" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -610,6 +616,14 @@
         <v>29</v>
       </c>
     </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
